--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/exp0ct5/Documents/HighSchoolProgram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CF4CD8-818B-5745-BB4C-F39042FE6828}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930DE722-92D6-DC48-87C9-C7D4FB3CF151}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{534C253E-EAC9-194C-A51D-A1DAF80266B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Monday</t>
   </si>
@@ -78,10 +78,61 @@
     <t>Review Previous Day</t>
   </si>
   <si>
-    <t>Finish projects, get presentations ready</t>
-  </si>
-  <si>
     <t>Science fair style presentations of week's projects</t>
+  </si>
+  <si>
+    <t>PyCharm Set Up</t>
+  </si>
+  <si>
+    <t>Math Operators</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Print function and lab</t>
+  </si>
+  <si>
+    <t>Math Functions</t>
+  </si>
+  <si>
+    <t>Variable Lab</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Formatting and Input</t>
+  </si>
+  <si>
+    <t>Strings and Strings Labs</t>
+  </si>
+  <si>
+    <t>Functions and Function labs</t>
+  </si>
+  <si>
+    <t>Data Structures and Data Structures lab (they probably will not finish all labs, they are there if they do finish)</t>
+  </si>
+  <si>
+    <t>Loops</t>
+  </si>
+  <si>
+    <t>Loops labs</t>
+  </si>
+  <si>
+    <t>Conditional Statements</t>
+  </si>
+  <si>
+    <t>Pygame Introduction</t>
+  </si>
+  <si>
+    <t>Brief Classes introduction</t>
+  </si>
+  <si>
+    <t>Pygame Input</t>
+  </si>
+  <si>
+    <t>Pygame Project</t>
   </si>
 </sst>
 </file>
@@ -143,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,78 +254,44 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,20 +614,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748591D-6852-3647-9A90-476C5F69B260}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="10"/>
     <col min="2" max="6" width="30.83203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -627,291 +643,336 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="11">
         <v>0.375</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="11">
         <v>0.38541666666666669</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="11">
         <v>0.40625</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="11">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="11">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="11">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="11">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="11">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="11">
         <v>0.46875</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="11">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="11">
         <v>0.48958333333333398</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="11">
         <v>0.5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="11">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="11">
         <v>0.52083333333333404</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="11">
         <v>0.53125</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="11">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>0.55208333333333404</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>0.55208333333333404</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>0.58333333333333404</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="11">
         <v>0.59375</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="18"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="11">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="18"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="11">
         <v>0.61458333333333404</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="30">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F18:F21"/>
@@ -922,6 +983,7 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
